--- a/data/Macro_data.xlsx
+++ b/data/Macro_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kozhe\OneDrive\Рабочий стол\study\CMF\macro-time-series-2022\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A3B479-8F95-4129-B242-F9F7DE8865BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1869C52-1D79-45E8-9385-94696388A7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
